--- a/biology/Zoologie/Cicindela_duodecimguttata/Cicindela_duodecimguttata.xlsx
+++ b/biology/Zoologie/Cicindela_duodecimguttata/Cicindela_duodecimguttata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Cicindela duodecimguttata, la cicindèle à douze points, est une espèce d'insectes coléoptères de la famille des Carabidae.
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C. duodecimguttata était autrefois considéré comme une sous-espèce de C. repanda. Son épithète spécifique signifie « douze points » et réfère à la coloration de ses élytres.
 </t>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C. duodecimguttata fait de 12 à 15 mm de longueur[1]. Selon l'entomologiste Auguste Dejean, la cicindèle fait de 2,25 à 2,75 lignes de large, soit de 57 à 70 mm[2]. Son corps est brun foncé à noir. Ses élytres arborent des motifs beiges qui varient d'un individu à l'autre; certains ont effectivement douze points, mais d'autres en ont moins.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C. duodecimguttata fait de 12 à 15 mm de longueur. Selon l'entomologiste Auguste Dejean, la cicindèle fait de 2,25 à 2,75 lignes de large, soit de 57 à 70 mm. Son corps est brun foncé à noir. Ses élytres arborent des motifs beiges qui varient d'un individu à l'autre; certains ont effectivement douze points, mais d'autres en ont moins.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Cicindèle à douze points est une espèce néarctique. On la retrouve au Canada et aux États-Unis, à l'est des Rocheuses. Elle vit près des zones humides, sur les sol sablonneux et limoneux près des rivières et de côtes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Cicindèle à douze points est une espèce néarctique. On la retrouve au Canada et aux États-Unis, à l'est des Rocheuses. Elle vit près des zones humides, sur les sol sablonneux et limoneux près des rivières et de côtes.
 </t>
         </is>
       </c>
